--- a/assets/template/3b6.xlsx
+++ b/assets/template/3b6.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tabel 3.b.6) Karya Ilmiah DTPS yang Disitasi</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Jumlah Sitasi</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,6 +141,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -153,19 +169,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,14 +612,14 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
@@ -622,16 +638,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -650,237 +666,289 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/template/3b6.xlsx
+++ b/assets/template/3b6.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5ED674-D820-45F2-AB39-245AA90A2A23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3b6" sheetId="1" r:id="rId1"/>
+    <sheet name="3b7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma" localSheetId="0">#REF!</definedName>
     <definedName name="diploma">#REF!</definedName>
@@ -31,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Tabel 3.b.6) Karya Ilmiah DTPS yang Disitasi</t>
-  </si>
-  <si>
-    <t>Diisi oleh pengusul dari program studi pada program Sarjana/Sarjana Terapan/Magister/Magister Terapan/Doktor/Doktor Terapan</t>
+    <t>Diisi oleh pengusul dari program studi pada program Diploma Tiga/Sarjana Terapan/Magister Terapan/Doktor Terapan</t>
   </si>
   <si>
     <t>No.</t>
@@ -45,19 +40,28 @@
     <t>Nama Dosen</t>
   </si>
   <si>
-    <t xml:space="preserve">Judul Artikel yang Disitasi (Jurnal, Volume, Tahun, Nomor, Halaman) </t>
+    <t>Nama Produk/Jasa</t>
   </si>
   <si>
-    <t>Jumlah Sitasi</t>
+    <t>Deskripsi Produk/Jasa</t>
+  </si>
+  <si>
+    <t>Bukti</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Tabel 3.b.6) Produk/Jasa DTPS yang Diadopsi oleh Industri/Masyarakat</t>
+  </si>
+  <si>
+    <t>Tahun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +121,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,19 +151,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -172,17 +169,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,113 +196,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,348 +494,588 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
